--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,35 +496,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Actor_LLM_Events_example_evidence_Sent_Sleep</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Actor_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -612,6 +617,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -698,6 +708,11 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -784,6 +799,11 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -870,6 +890,11 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -956,6 +981,11 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>['[]']</t>
         </is>
       </c>
@@ -1042,6 +1072,11 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>['[]']</t>
         </is>
       </c>
@@ -1103,30 +1138,35 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['patient']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1214,6 +1254,11 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -1279,30 +1324,35 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['others']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>['comforting patient when awake']</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:comforting patient when awake']</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Actor_LLM_Events_example_evidence_Sent</t>
+          <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Attribute_LLM_Events_example_evidence_Sent</t>
+          <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
+          <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Event_Id_LLM_Events_example_evidence_Sent</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -617,11 +612,6 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -708,11 +698,6 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -799,11 +784,6 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -890,11 +870,6 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -981,11 +956,6 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
           <t>['[]']</t>
         </is>
       </c>
@@ -1072,11 +1042,6 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
           <t>['[]']</t>
         </is>
       </c>
@@ -1148,25 +1113,20 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>['patient']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
+          <t>['e1=Unknown|1:patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1254,11 +1214,6 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
           <t>[[]]</t>
         </is>
       </c>
@@ -1334,25 +1289,20 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>['others']</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[{'Unknown': {}}]</t>
+          <t>['comforting patient when awake']</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>['comforting patient when awake']</t>
+          <t>['e1=Unknown|1:comforting patient when awake']</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:comforting patient when awake']</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V5_fa/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,30 +501,35 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>is_patient</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -532,16 +537,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22673_1558369_0017</t>
+          <t>7134_1357278_0012</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(has not slept well for past 2 nights)</t>
+          <t>o2sat 93-95%, h/o sleep apnea</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -552,12 +557,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(Timestamp('2167-05-18 05:26:00'), Timestamp('2167-05-18 05:33:00'))</t>
+          <t>(Timestamp('1964-05-18 02:07:00'), Timestamp('1964-05-18 02:16:00'))</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'text': '(has not slept well for past 2 nights)', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "sleep history",\n      "attribute_value": "not slept well for past 2 nights"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2167-05-18 05:26:00 and 2167-05-18 05:33:00):\n           (has not slept well for past 2 nights)\n        ', 'case_attributes': [[{'attribute_name': 'sleep history', 'attribute_value': 'not slept well for past 2 nights'}]], 'actor': [], 'event_detection_time': 1.6240494009107351}</t>
+          <t>{'text': 'o2sat 93-95%, h/o sleep apnea', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "history of sleep apnea"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1964-05-18 02:07:00 and 1964-05-18 02:16:00:\n\'o2sat 93-95%, h/o sleep apnea\'\n', 'case_attributes': [[{'attribute_name': 'history of sleep apnea'}]], 'actor': [], 'event_detection_time': 1.272813961841166}</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -565,7 +570,7 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -585,10 +590,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O2" t="b">
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -611,6 +614,11 @@
         </is>
       </c>
       <c r="T2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -618,40 +626,40 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>246</v>
+        <v>532</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7134_1357278_0012</t>
+          <t>18356_1503936_0005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>o2sat 93-95%, h/o sleep apnea</t>
+          <t>patient then awake having bronchospasms</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(Timestamp('2135-02-21 02:07:00'), Timestamp('2135-02-21 02:16:00'))</t>
+          <t>(Timestamp('1978-04-13 13:28:00'), Timestamp('1978-04-13 13:39:00'))</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'text': 'o2sat 93-95%, h/o sleep apnea', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "history of sleep apnea"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2135-02-21 02:07:00 and 2135-02-21 02:16:00):\n           o2sat 93-95%, h/o sleep apnea\n        ', 'case_attributes': [[{'attribute_name': 'history of sleep apnea'}]], 'actor': [], 'event_detection_time': 1.2691472240258008}</t>
+          <t>{'text': 'patient then awake having bronchospasms', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown", \n            "text_quote": "patient then awake having bronchospasms",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient then awake having bronchospasms'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1978-04-13 13:28:00 and 1978-04-13 13:39:00:\n\'patient then awake having bronchospasms\'\n', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.1661390198860317}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -671,10 +679,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -683,20 +689,25 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Unknown']</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Unknown': {}}]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['patient then awake having bronchospasms']</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
+        <is>
+          <t>['e1=Unknown|1:patient then awake having bronchospasms']</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -704,38 +715,42 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>261</v>
+        <v>714</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23927_1574844_0005</t>
+          <t>31926_1667620_0007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>asthma, niddm, reflux, sleep apnea -&gt; cpap @noc, dvt, bipolar</t>
+          <t>plan: patient not waking and not on sedation, continue neuro assessments</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(Timestamp('2188-12-03 02:51:00'), Timestamp('2188-12-03 03:11:00'))</t>
+          <t>(Timestamp('1947-04-13 04:47:00'), Timestamp('1947-04-13 04:52:00'))</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'text': 'asthma, niddm, reflux, sleep apnea -&gt; cpap @noc, dvt, bipolar', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "asthma",\n      "attribute_value": "present"\n    },\n    {\n      "attribute_name": "niddm",\n      "attribute_value": "present"\n    },\n    {\n      "attribute_name": "reflux",\n      "attribute_value": "present"\n    },\n    {\n      "attribute_name": "sleep apnea",\n      "attribute_value": "present"\n    },\n    {\n      "attribute_name": "cpap",\n      "attribute_value": "@noc"\n    },\n    {\n      "attribute_name": "dvt",\n      "attribute_value": "present"\n    },\n    {\n      "attribute_name": "bipolar",\n      "attribute_value": "present"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2188-12-03 02:51:00 and 2188-12-03 03:11:00):\n           asthma, niddm, reflux, sleep apnea -&gt; cpap @noc, dvt, bipolar\n        ', 'case_attributes': [[{'attribute_name': 'asthma', 'attribute_value': 'present'}, {'attribute_name': 'niddm', 'attribute_value': 'present'}, {'attribute_name': 'reflux', 'attribute_value': 'present'}, {'attribute_name': 'sleep apnea', 'attribute_value': 'present'}, {'attribute_name': 'cpap', 'attribute_value': '@noc'}, {'attribute_name': 'dvt', 'attribute_value': 'present'}, {'attribute_name': 'bipolar', 'attribute_value': 'present'}]], 'actor': [], 'event_detection_time': 5.195655649062246}</t>
+          <t>{'text': 'plan: patient not waking and not on sedation, continue neuro assessments', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "plan",\n            "attribute_value": "patient not waking and not on sedation, continue neuro assessments"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '**Task: Event Classification and Attribute Extraction** \nYour task is to analyze the Text below and extract all events that occurred during the current hospital shift (the time the note was written).\nClassify each event into one or more of the following categories:\nCategory\tDefinition\nEating\tThe patient takes food into their body by mouth.\nExcretion\tThe patient discharges waste matter from their body.\nFamily\tThe patient has a visit, call, or communication with a family member.\nPain\tThe patient reports or shows signs of pain.\nSleep\tThe patient sleeps or the sleep’s quality or quantity is described.\nUnknown\tchoose "Unknown" if none of the other event type are applicable..\n\n**Rules and Conditions** \n1. Time constraint: Consider only actions that occurred during the current shift as events. \n2. Event constraint: Consider patient history, planning and requests as case attributes. Log them seperately. \n3. Actor constraint: Find out who is the main actor of the event.\n4. Negation Rule: Extract an event even if negated (e.g. “did not sleep”), and set "negation": true.\n5. Default Assumptions: \n        - If actor unclear → "actor":"patient"\n        - If time not mentioned → "time": "Unknown" \n        - If cause not mentioned → "caused_by": "Unknown" \n6. Clarifications:\n        - Sedation/resting ≠ sleep events.\n        - Sleep apnea occurs during sleep.\n        - Actions done to enable an event do not imply the event occurred (e.g., “given med for sleep” ≠ sleep).\nFor each detected event, output strictly valid JSON following the schema below: \n```\n    \n                        {   \n                        "case_attributes":[ \n                        //all patient-related details that did NOT occur during the current hospital shift, including past history, future plans, or events that happened at home or outside the hospital.\n                            {\n                            "attribute_name":"attribute_value" \n                            }\n                        ]  \n                        "events": [ \n                        //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ \n                        //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n```\n**Examples for Sleep Classification**\n\n                1. Include as Sleep Event**\n                - "Patient slept for 2 hours."\n                - "heart rate 50pbm while asleep"\n                - "patient now awake" (awake "now" assumes the patient was sleeping at an earlier state)\n\n                2. Do NOT include as Sleep Event**\n                - "Patient asked for sleeping pill." (Request, not event)\n                - "Patient wants to sleep later." (Future plan)\n                - "Patient fell asleep while driving (history)." (Before shift)\n                - "Patient was sedated/put to sleep for procedure." (Sedation)\n                - "Daughter slept in the room." (Actor ≠ patient)\n                - "Patient Alert and Awake" (Although awake is mentioned, it is not in the context of a status change from sleep but as an observation)\n\n**Text**\nWritten between 1947-04-13 04:47:00 and 1947-04-13 04:52:00:\n\'plan: patient not waking and not on sedation, continue neuro assessments\'\n', 'case_attributes': [[{'attribute_name': 'plan', 'attribute_value': 'patient not waking and not on sedation, continue neuro assessments'}]], 'actor': [], 'event_detection_time': 1.7108824630267918}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>not waking + not sedated = sleep</t>
+        </is>
+      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -757,10 +772,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -784,525 +797,10 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[[]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15295_1461120_0018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sleep apnea - patient has thick/short neck &amp; obese abd that puts patient at risk</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(Timestamp('2108-01-02 05:41:00'), Timestamp('2108-01-02 05:52:00'))</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{'text': 'sleep apnea - patient has thick/short neck &amp; obese abd that puts patient at risk', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "sleep apnea",\n      "attribute_value": "patient has thick/short neck &amp; obese abdomen"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2108-01-02 05:41:00 and 2108-01-02 05:52:00):\n           sleep apnea - patient has thick/short neck &amp; obese abd that puts patient at risk\n        ', 'case_attributes': [[{'attribute_name': 'sleep apnea', 'attribute_value': 'patient has thick/short neck &amp; obese abdomen'}]], 'actor': [], 'event_detection_time': 1.6950032610911876}</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>[[]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7127_1357221_0035</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mae, slept well after 5mg by mouth ambien at mn</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(Timestamp('2155-05-05 02:50:00'), Timestamp('2155-05-05 03:10:00'))</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'text': 'mae, slept well after 5mg by mouth ambien at mn', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well after 5mg by mouth ambien at mn",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e84",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e85",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e86",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e87",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e88",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e89",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e90",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e91",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e92",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e93",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e94",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e95",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e96",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e97",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e98",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e99",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e100",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e101",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e102",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e103",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e104",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e105",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e106",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e107",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e108",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e109",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e110",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e111",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "obje</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>['[]']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5383_1333331_0003</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(Timestamp('2199-06-17 19:30:00'), Timestamp('2199-06-17 19:43:00'))</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'text': 'responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "immediate",\n          "duration": "short"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e84",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e85",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e86",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e87",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e88",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e89",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e90",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e91",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e92",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e93",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e94",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e95",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e96",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e97",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e98",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e99",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e100",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e101",\n      "event_type": "Sleep",\n      "text_quote": "responds to voice &amp; weakly follows commands but falls asleep immediately unless stimulated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e102",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e103",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e104",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {}\n      }\n    },\n    {\n      "event_id": "e105",\n      "event_type</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>['[]']</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30156_1651305_0003</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>(Timestamp('2139-04-24 05:38:00'), Timestamp('2139-04-24 06:02:00'))</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{'text': 'patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2139-04-24 05:38:00 and 2139-04-24 06:02:00):\n           patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.7848769349511713}</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>['Unknown']</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>[{'Unknown': {}}]</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>[[]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12694_1428619_0042</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>(Timestamp('2118-10-20 14:12:00'), Timestamp('2118-10-20 14:28:00'))</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{'text': 'hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "long term plan",\n            "attribute_value": "psych consult"\n        },\n        {\n            "attribute_name": "reasons for long term plan",\n            "attribute_value": "depression and etoh abuse"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2118-10-20 14:12:00 and 2118-10-20 14:28:00):\n           hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse\n        ', 'case_attributes': [[{'attribute_name': 'long term plan', 'attribute_value': 'psych consult'}, {'attribute_name': 'reasons for long term plan', 'attribute_value': 'depression and etoh abuse'}]], 'actor': [], 'event_detection_time': 2.355919568100944}</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>[[]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11717_1415271_0006</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>comforting patient when awake</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>(Timestamp('2129-05-22 17:54:00'), Timestamp('2129-05-22 18:07:00'))</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{'text': 'comforting patient when awake', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "comforting patient when awake",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['comforting patient when awake'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the Text at the end of this prompt into events that took place at the HOSPITAL, DURING THE SHIFT in which this text was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'An event is extracted from the text even if it is negated (e.g. "did not sleep"), but the respective negation attribute is set to True.\', \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n              \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n            ```\n           \n           \n           Text (written between 2129-05-22 17:54:00 and 2129-05-22 18:07:00):\n           comforting patient when awake\n        ', 'case_attributes': [[]], 'actor': ['others'], 'event_detection_time': 2.996370399836451}</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>So they were sleeping otherwise</t>
-        </is>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>['Unknown']</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>[{'Unknown': {}}]</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>['comforting patient when awake']</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>['e1=Unknown|1:comforting patient when awake']</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
